--- a/m1/u1/ejercicios/20191028/Funciones lógicas/FUNCION-Y-O-ej.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/FUNCION-Y-O-ej.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\Cursos\Excel\Funciones lógicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\Funciones lógicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>FUNCIÓN SI Y O</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>APTO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -222,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,9 +962,10 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,7 +979,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -985,7 +993,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1042,8 +1050,16 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6" t="str">
+        <f>IF(OR(AND(C6="Madrid",H6=1,G6&lt;22),AND(H6=2,E6="M",G6&gt;18),AND(F6="ADMINISTRATIVO",E6="F",C6="Barcelona",D6="COMPLETO"),AND(E6="F",D6="VESPERTINO",C6="Madrid")),"APTO","NO APTO")</f>
+        <v>APTO</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(OR(AND(D6="COMPLETO",F6="ADMINISTRATIVO",C6="MADRID"),AND(G6=19),OR(G6=20),AND(D6="COMPLETO"),OR(D6="MATUTINO")),B6,"SIN NOMBRE")</f>
+        <v>Diego Martín</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1084,16 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" ref="I7:I17" si="0">IF(OR(AND(C7="Madrid",H7=1,G7&lt;22),AND(H7=2,E7="M",G7&gt;18),AND(F7="ADMINISTRATIVO",E7="F",C7="Barcelona",D7="COMPLETO"),AND(E7="F",D7="VESPERTINO",C7="Madrid")),"APTO","NO APTO")</f>
+        <v>NO APTO</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" ref="J7:J17" si="1">IF(OR(AND(D7="COMPLETO",F7="ADMINISTRATIVO",C7="MADRID"),AND(G7=19),OR(G7=20),AND(D7="COMPLETO"),OR(D7="MATUTINO")),B7,"SIN NOMBRE")</f>
+        <v>Nuria Pérez</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1118,16 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NO APTO</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Jordi Fontana</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,8 +1152,16 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NO APTO</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Elena Casado</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,8 +1186,16 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NO APTO</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Eva Esteve</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1172,8 +1220,16 @@
       <c r="H11">
         <v>2</v>
       </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>APTO</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Federico García</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1198,8 +1254,19 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>APTO</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Luis Guerrero</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,8 +1291,16 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>APTO</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Merche Torres</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,8 +1325,16 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NO APTO</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>José Bonaparte</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,8 +1359,16 @@
       <c r="H15">
         <v>1</v>
       </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NO APTO</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lourdes Merino</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,8 +1393,16 @@
       <c r="H16">
         <v>3</v>
       </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>APTO</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Jorge Rico</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1327,6 +1426,14 @@
       </c>
       <c r="H17">
         <v>0</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NO APTO</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>SIN NOMBRE</v>
       </c>
     </row>
   </sheetData>
